--- a/LC MLM/MLM models.xlsx
+++ b/LC MLM/MLM models.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="860" windowWidth="14260" windowHeight="16340" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="60" yWindow="580" windowWidth="14260" windowHeight="16340" tabRatio="500" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="glmer" sheetId="1" r:id="rId1"/>
@@ -3874,8 +3874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="A1:H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4253,25 +4253,25 @@
         <v>46</v>
       </c>
       <c r="B19">
-        <v>1.405E-3</v>
+        <v>4.352E-3</v>
       </c>
       <c r="C19">
         <f>EXP(B19)</f>
-        <v>1.0014059874749133</v>
+        <v>1.0043614837047035</v>
       </c>
       <c r="D19">
-        <v>0.35499999999999998</v>
+        <v>3.5920000000000001E-3</v>
       </c>
       <c r="E19">
-        <v>0.72299999999999998</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="F19">
         <f>EXP(B19-(1.96*D19))</f>
-        <v>0.4993764793814518</v>
+        <v>0.99731529029627597</v>
       </c>
       <c r="G19">
         <f>EXP(B19+(1.96*D19))</f>
-        <v>2.0081321270732109</v>
+        <v>1.011457459606222</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4279,25 +4279,25 @@
         <v>45</v>
       </c>
       <c r="B20">
-        <v>0.78010000000000002</v>
+        <v>0.69259999999999999</v>
       </c>
       <c r="C20">
         <f>EXP(B20)</f>
-        <v>2.1816904236324759</v>
+        <v>1.9989059382320722</v>
       </c>
       <c r="D20">
-        <v>0.16250000000000001</v>
+        <v>0.1676</v>
       </c>
       <c r="E20" t="s">
         <v>44</v>
       </c>
       <c r="F20">
         <f>EXP(B20-(1.96*D20))</f>
-        <v>1.586610532067001</v>
+        <v>1.4392238856591018</v>
       </c>
       <c r="G20">
         <f>EXP(B20+(1.96*D20))</f>
-        <v>2.9999631342221873</v>
+        <v>2.7762358516372307</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4959,7 +4959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
